--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_DCs_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_DCs_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -546,52 +546,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tpd52</t>
         </is>
       </c>
     </row>
@@ -601,52 +601,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Tsix</t>
         </is>
       </c>
     </row>
@@ -656,52 +656,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -726,37 +726,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
     </row>
@@ -766,52 +766,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Thbs1</t>
         </is>
       </c>
     </row>
@@ -821,52 +821,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -906,22 +906,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -931,52 +931,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Tes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Samsn1</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Cd83</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Ifi207</t>
         </is>
       </c>
     </row>
@@ -986,52 +986,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Dennd4a</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tmem189</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Swap70</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pik3r1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cd274</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Wdfy4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Cst3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Gm12999</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Gm10244</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Gm15396</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Akap13</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Gm26759</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Samsn1</t>
         </is>
       </c>
     </row>
@@ -1041,27 +1041,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1071,22 +1071,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cd274</t>
         </is>
       </c>
     </row>
@@ -1096,52 +1096,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Gda</t>
         </is>
       </c>
     </row>
@@ -1151,52 +1151,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Havcr2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Arhgap18</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
@@ -1206,52 +1206,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Cblb</t>
         </is>
       </c>
     </row>
@@ -1261,52 +1261,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Trim25</t>
         </is>
       </c>
     </row>
@@ -1316,52 +1316,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Stt3b</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Nr4a2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Malat1</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Il1r2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Gm36043</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Tspan13</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Mmp12</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1391,32 +1391,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Jak2</t>
         </is>
       </c>
     </row>
@@ -1426,52 +1426,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Dennd4a</t>
         </is>
       </c>
     </row>
@@ -1481,52 +1481,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
     </row>
@@ -1536,52 +1536,52 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Samsn1</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1606,37 +1606,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plxnc1</t>
         </is>
       </c>
     </row>
@@ -1646,52 +1646,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Mdh2</t>
         </is>
       </c>
     </row>
@@ -1701,52 +1701,52 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Vav3</t>
         </is>
       </c>
     </row>
@@ -1756,52 +1756,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cyp26b1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Serpinb9</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>Rgs1</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Itga4</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Il1r2</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Vav3</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Lrrk2</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
     </row>
@@ -1811,37 +1811,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
     </row>
@@ -1866,32 +1866,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Apoe</t>
         </is>
       </c>
     </row>
@@ -1921,52 +1921,52 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
     </row>
@@ -1976,52 +1976,52 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>Cdk14</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Cap1</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>6530413G14Rik</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Adam23</t>
         </is>
       </c>
     </row>
@@ -2031,52 +2031,52 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
     </row>
@@ -2086,52 +2086,52 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Cdk14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Vav3</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Akap13</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Tes</t>
         </is>
       </c>
     </row>
@@ -2141,52 +2141,52 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cyp26b1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cdk14</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Actn1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Vav3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>Cd83</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Rnaseh2a</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Sf3b1</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Gm15663</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Cyld</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Cap1</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Tcof1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Iqgap2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2216,32 +2216,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Cyld</t>
         </is>
       </c>
     </row>
@@ -2251,52 +2251,52 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Cadm1</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Rab7b</t>
         </is>
       </c>
     </row>
@@ -2361,52 +2361,52 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
     </row>
@@ -2416,52 +2416,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -2471,52 +2471,52 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nr4a3</t>
         </is>
       </c>
     </row>
@@ -2526,52 +2526,52 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Lrrk2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>H2-Eb1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Vav3</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Gm15663</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Samsn1</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Nr4a3</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Mcl1</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Malt1</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Stt3b</t>
         </is>
       </c>
     </row>
@@ -2581,52 +2581,52 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Serpinb9</t>
         </is>
       </c>
     </row>
@@ -2636,52 +2636,52 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Swap70</t>
         </is>
       </c>
     </row>
@@ -2691,52 +2691,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Tbc1d4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ccr7</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Mdh2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Adam23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Gda</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tmem131</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>Arap2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Ssh2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Kpna4</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Malat1</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Il1r2</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Gm15663</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -2746,52 +2746,52 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ccr7</t>
         </is>
       </c>
     </row>
@@ -2801,22 +2801,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2826,27 +2826,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
     </row>
@@ -2856,27 +2856,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2886,22 +2886,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
     </row>
@@ -2911,52 +2911,52 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Actn1</t>
         </is>
       </c>
     </row>
@@ -2966,52 +2966,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Swap70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cst3</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>Wdfy4</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Nr4a3</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Ssh2</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Gm11175</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -3021,52 +3021,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Clec1a</t>
         </is>
       </c>
     </row>
@@ -3076,52 +3076,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Vav3</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Adgrg6</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Adgrg6</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Cdk14</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Jak2</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Rnaseh2a</t>
         </is>
       </c>
     </row>
@@ -3131,52 +3131,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Plet1os</t>
         </is>
       </c>
     </row>
@@ -3186,52 +3186,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tmem131</t>
         </is>
       </c>
     </row>
@@ -3241,52 +3241,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Adam23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Mdh2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Clec9a</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Ccr7</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
           <t>Ly75</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Gdi2</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Tcof1</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Jak2</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Il1r2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -3296,52 +3296,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -3351,52 +3351,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Lrrk2</t>
         </is>
       </c>
     </row>
@@ -3406,52 +3406,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Trim25</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>Hspa5</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Il1b</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Gm14023</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Gm14023</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Adgrg6</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Jak2</t>
         </is>
       </c>
     </row>
@@ -3461,52 +3461,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Nr4a2</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3526,32 +3526,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Pkib</t>
         </is>
       </c>
     </row>
@@ -3571,52 +3571,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>Clec1a</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
           <t>Fosb</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Ly75</t>
         </is>
       </c>
     </row>
@@ -3626,52 +3626,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Adam19</t>
         </is>
       </c>
     </row>
@@ -3681,52 +3681,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Itga4</t>
         </is>
       </c>
     </row>
@@ -3736,52 +3736,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Irf4</t>
         </is>
       </c>
     </row>
@@ -3791,52 +3791,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Clec9a</t>
         </is>
       </c>
     </row>
@@ -3846,52 +3846,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Sgms1</t>
         </is>
       </c>
     </row>
@@ -3901,52 +3901,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Flt3</t>
         </is>
       </c>
     </row>
@@ -3956,52 +3956,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Hyou1</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4026,37 +4026,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -4066,52 +4066,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cdk14</t>
         </is>
       </c>
     </row>
@@ -4121,52 +4121,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Itpr1</t>
         </is>
       </c>
     </row>
@@ -4181,47 +4181,47 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
+          <t>Pik3r1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Tmem131</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>Havcr2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Gdi2</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Gm10244</t>
         </is>
       </c>
     </row>
@@ -4231,50 +4231,105 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
+        <is>
+          <t>1110035H17Rik</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cadm1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Itpr1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tpd52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Itpr1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tpd52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Swap70</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Malat1</t>
         </is>
